--- a/biology/Botanique/Kokedama/Kokedama.xlsx
+++ b/biology/Botanique/Kokedama/Kokedama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les kokedama (苔玉?), des « sphères de mousse » sur lesquelles s'épanouissent des plantes, sont apparus au Japon au début des années 1990.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mise en situation très particulière des plantes met celles-ci en valeur et la mousse donne un aspect très naturel à la conception.
 Le kokedama trouve son origine dans le mariage de plusieurs techniques ancestrales existantes au Japon. On peut en citer trois principales :
@@ -552,53 +566,200 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe diverses techniques, chacune ayant ses avantages et ses inconvénients.
-Technique dite traditionnelle
-Le substrat à utiliser est à base d'une argile noire récoltée au fond des rizières et d’akadama (赤玉?, argile rouge granuleuse). On ajoute divers composants comme de la terre du mont Fuji (富士砂, Fuji-zuna?). Chaque école possède ses secrets. Les proportions des différents constituants varient beaucoup en fonction des exigences de la plante. Le port de gants fins est conseillé pour éviter d'avoir des mains noircies. Le mélange obtenu doit être pétri longuement avec précaution pour éviter de broyer l’akadama. On obtient une pâte plastique. On peut alors la façonner en boule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Technique dite traditionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le substrat à utiliser est à base d'une argile noire récoltée au fond des rizières et d’akadama (赤玉?, argile rouge granuleuse). On ajoute divers composants comme de la terre du mont Fuji (富士砂, Fuji-zuna?). Chaque école possède ses secrets. Les proportions des différents constituants varient beaucoup en fonction des exigences de la plante. Le port de gants fins est conseillé pour éviter d'avoir des mains noircies. Le mélange obtenu doit être pétri longuement avec précaution pour éviter de broyer l’akadama. On obtient une pâte plastique. On peut alors la façonner en boule.
 La plante est enlevée de son pot et ses racines sont débarrassées de la terre avec précaution. On utilise un démêleur (morceau de bambou en forme de lame). Les racines trop importantes peuvent être taillées (jusqu'à 1/3). Le végétal est prêt à être « transplanté ». On rassemble alors légèrement les racines. On applique le mélange sur les racines en évitant de casser les radicelles qui sont très fragiles. On ajoute du mélange jusqu'à obtenir une sphère. La taille de la sphère est question d'esthétisme. Elle est couramment de six à dix centimètres.
 La dernière étape consiste à habiller la sphère de mousse. On prend un morceau de mousse plate et l'on recouvre la sphère. Il est souvent nécessaire d'utiliser plusieurs morceaux. La mousse est fixée à l'aide d'un fil enroulé autour de la sphère de manière irrégulière selon des méridiens imaginaires. En fonction des écoles de kokedama, le fil est soit en aluminium (0,5 mm), soit en coton noir, soit en coton vert ou soit en nylon.
 Une fois fini, la mousse peut être taillée pour donner un aspect plus lisse. Puis, le kokedama est plongé dans l'eau pendant environ dix minutes. Cela permet de le laver (de l'argile noire et des petits débris végétaux en particulier) et de tasser la terre autour des racines. L'eau doit être à température ambiante, voire tiède. Elle doit être faiblement minéralisée (moins de 250 g/l de résidus minéraux, sinon il y aura des dépôts de concrétions minérales sur le mousse) et sans chlore (fatal pour les mousses).
-Technique de la sphaigne non compressée
-Dans cette technique, on utilise de la sphaigne (sphagnum) séchée réhumidifiée qui remplace le mélange de la technique traditionnelle. On enveloppe les racines jusqu'à faire une sphère. Cette sphère est ensuite enveloppée de mousse. Cette technique est utilisée pour les plantes aimant les substrats humides : juncus spiralis, acorus gramineus, ophiopogon, etc.
-Technique de la sphaigne compressée
-Pour cela, on utilise une sphère déjà formée composée de sphaigne colorée et compressée. Ce type de sphère est introuvable en Europe. Il en existe de plusieurs diamètres et plusieurs coloris. Un emplacement au centre permet de placer la plante avec une partie de son terreau. Ces kokedama sont souvent personnalisés avec des yeux, un nez et une bouche.
-Technique simplifiée
-Le seul matériau utilisé est l'argile noire. On n'enlève pas la terre des racines de la plante. On en enlève un peu afin de former une sphère avec le substrat d'origine de la plante. Puis on applique une couche (0,5 cm environ) de cette argile noire. On enveloppe alors cette sphère de mousse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Technique de la sphaigne non compressée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette technique, on utilise de la sphaigne (sphagnum) séchée réhumidifiée qui remplace le mélange de la technique traditionnelle. On enveloppe les racines jusqu'à faire une sphère. Cette sphère est ensuite enveloppée de mousse. Cette technique est utilisée pour les plantes aimant les substrats humides : juncus spiralis, acorus gramineus, ophiopogon, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technique de la sphaigne compressée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour cela, on utilise une sphère déjà formée composée de sphaigne colorée et compressée. Ce type de sphère est introuvable en Europe. Il en existe de plusieurs diamètres et plusieurs coloris. Un emplacement au centre permet de placer la plante avec une partie de son terreau. Ces kokedama sont souvent personnalisés avec des yeux, un nez et une bouche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technique simplifiée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul matériau utilisé est l'argile noire. On n'enlève pas la terre des racines de la plante. On en enlève un peu afin de former une sphère avec le substrat d'origine de la plante. Puis on applique une couche (0,5 cm environ) de cette argile noire. On enveloppe alors cette sphère de mousse.
 L'intérêt est que la plante reste dans son substrat d'origine et l'inconvénient est que l'on obtient un kokedama dont la rétention en eau est très faible. Il demande plus de vigilance pour garder une humidité suffisante.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kokedama</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Matériaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mousse
-Au Japon, il y a plus de 2 300 espèces de bryophytes (mousses) alors que sous nos climats, on en rencontre environ 1 300[Où ?]. Une centaine d'espèces sont régulièrement utilisées pour les jardins, murs végétaux, verdissement de talus, bonsaïs et kokedama. Pour les kokedama , trois espèces de bryophytes sont employées :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La mousse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, il y a plus de 2 300 espèces de bryophytes (mousses) alors que sous nos climats, on en rencontre environ 1 300[Où ?]. Une centaine d'espèces sont régulièrement utilisées pour les jardins, murs végétaux, verdissement de talus, bonsaïs et kokedama. Pour les kokedama , trois espèces de bryophytes sont employées :
 Rhacomitrium canescen : suna-goke, pour une utilisation au soleil ;
 Hypnum plumaeforme : hai-goke, pour une utilisation à mi-ombre ;
 Thuidium : shinobu-goke, pour une utilisation à l’ombre.
@@ -607,37 +768,74 @@
 			Thuidium.
 En France, on trouve Rhacomitrium canescen, Hypnum plumaeforme et des Thuidium. Distinguer les différentes espèces est très délicat. Pour les prélever dans la nature, il est indispensable de demander au propriétaire son autorisation. Cette cueillette se fera avec beaucoup de parcimonie car les mousses poussent très lentement et ont un rôle important tant dans la stabilité des sols, l'hygrométrie des micro-climats (zones spécifiques de quelques mètres carrés) et comme abris pour la micro-faune. Il est préférable de demander de la mousse à une jardinerie.
 Une fois réalisé, les kokedama sont déposés sur des supports le plus souvent plats en argile, ardoise, bois, pierre, etc. Les kokedama peuvent être également mis en suspension.
-Choix des végétaux
-Le choix des végétaux est très large. Il est préférable d'employer des végétaux d'intérieur plus faciles à surveiller et pour lesquels la littérature est abondante si des difficultés surgissent.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kokedama</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Matériaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Choix des végétaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le choix des végétaux est très large. Il est préférable d'employer des végétaux d'intérieur plus faciles à surveiller et pour lesquels la littérature est abondante si des difficultés surgissent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kokedama</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kokedama</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est important d’apporter un environnement favorable (lumière, absence de courant d'air, température, hygrométrie, etc.) propice au kokedama en fonction de la plante utilisée. Le kokedama supporte mal les rayons du soleil direct et l’air conditionné, donc il faut éviter ce genre de situation. En ce qui concerne l’arrosage, il est à adapter selon la saison et l'hygrométrie.
 En fait, un kokedama se baigne. On immerge la sphère environ toutes les semaines d'octobre à avril et tous les deux ou trois jours de mai à septembre, voire plus. On ressort le kokedama au bout d'une dizaine de minutes dès qu’il n’y a plus de bulles d’air qui remontent. L'eau doit être à température ambiante, faiblement minéralisée et sans chlore.
